--- a/biology/Botanique/Renouée_faux_liseron/Renouée_faux_liseron.xlsx
+++ b/biology/Botanique/Renouée_faux_liseron/Renouée_faux_liseron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_faux_liseron</t>
+          <t>Renouée_faux_liseron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fallopia convolvulus
-La Renouée faux liseron (Fallopia convolvulus) est une plante herbacée annuelle de la famille des Polygonaceae. Elle est aussi appelée Vrillée sauvage, ou Vrillée liseron[1]. Ses tiges volubiles font de 1 à 1,50 m. La fleur blanchâtre est très petite. 
-Cette espèce rampe sur le sol ou bien s’enroule sur toute sorte de supports, comme le liseron des champs auquel elle ressemble beaucoup, à l’exception de ses fleurs qui sont beaucoup plus petites[2].
+La Renouée faux liseron (Fallopia convolvulus) est une plante herbacée annuelle de la famille des Polygonaceae. Elle est aussi appelée Vrillée sauvage, ou Vrillée liseron. Ses tiges volubiles font de 1 à 1,50 m. La fleur blanchâtre est très petite. 
+Cette espèce rampe sur le sol ou bien s’enroule sur toute sorte de supports, comme le liseron des champs auquel elle ressemble beaucoup, à l’exception de ses fleurs qui sont beaucoup plus petites.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_faux_liseron</t>
+          <t>Renouée_faux_liseron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Nomenclature et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’espèce a d’abord été décrite et nommée Polygonum convolvulus par Linné en 1753 dans Species Plantarum 1: 364.   
 En 1970, le botaniste d’origine suédoise Áskell Löve reclasse l’espèce dans le genre Fallopia (dans Taxon 19(2): 300). 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_faux_liseron</t>
+          <t>Renouée_faux_liseron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos, les synonymes sont[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos, les synonymes sont :
 Polygonum convolvulus L. (Basionyme)
 Bilderdykia convolvulus (L.) Dumort.
 Fagopyrum convolvulus (L.) Delarbre
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_faux_liseron</t>
+          <t>Renouée_faux_liseron</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,10 +601,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fallopia convolvulus est une plante herbacée annuelle. Les tiges jumelées, striées, ramifiées à la base, font de 1 à 1,50 m[4]. Elles sont volubiles et grimpantes. 
-Les feuilles, portées par un pétiole de 1,5–5 cm de long, possède un limbe papilleux, farineux, sur la face inférieure, à base cordée, marge entière, et apex acuminé, donnant globalement une forme de fer de flèche[2]. L’ochréa est court, membraneux, oblique et non cilié. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fallopia convolvulus est une plante herbacée annuelle. Les tiges jumelées, striées, ramifiées à la base, font de 1 à 1,50 m. Elles sont volubiles et grimpantes. 
+Les feuilles, portées par un pétiole de 1,5–5 cm de long, possède un limbe papilleux, farineux, sur la face inférieure, à base cordée, marge entière, et apex acuminé, donnant globalement une forme de fer de flèche. L’ochréa est court, membraneux, oblique et non cilié. 
 L’inflorescence axillaire est un racème, à bractées étroitement ovales, avec chacune 2 à 4 fleurs. La fleur très petite, blanchâtre, porte des tépales étroitement elliptiques, de taille inégale, les 3 extérieurs plus grands et carénés ou étroitement ailés sur la surface abaxiale, légèrement accrescents dans les fruits, ainsi que 8 étamines, 3 styles très courts. 
 Les fruits sont de petits akènes inclus dans le périanthe persistant, noir, opaque, ellipsoïde, trigone, 3-4 mm, finement granulaire. 
 La floraison se déroule de juillet à septembre.
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_faux_liseron</t>
+          <t>Renouée_faux_liseron</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,12 +639,14 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fallopia convolvulus a une distribution subcosmopolite. 
-Elle est originaire d’Eurasie sauf UK et Asie du Sud-Est. Elle est présente partout en France[1]. 
+Elle est originaire d’Eurasie sauf UK et Asie du Sud-Est. Elle est présente partout en France. 
 Elle a été introduite en Amérique du Nord, dans une partie de l’Amérique du Sud et de l’Afrique australe.
-Cette plante pousse généralement dans les cultures et s’enroule autour de la tige des céréales. Dans les rues, elle grimpe généralement le long des clôtures et des grillages[2].
+Cette plante pousse généralement dans les cultures et s’enroule autour de la tige des céréales. Dans les rues, elle grimpe généralement le long des clôtures et des grillages.
 </t>
         </is>
       </c>
